--- a/top_news.xlsx
+++ b/top_news.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="1185" yWindow="105"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -346,18 +346,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" width="30"/>
+    <col customWidth="1" max="1" min="1" width="30"/>
     <col customWidth="1" max="2" min="2" width="30"/>
     <col customWidth="1" max="3" min="3" width="20"/>
-    <col customWidth="1" max="5" min="4" width="50"/>
+    <col customWidth="1" max="4" min="4" width="50"/>
     <col customWidth="1" max="5" min="5" width="50"/>
   </cols>
   <sheetData>
@@ -443,6 +443,61 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://tribune.com.pk/</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>February 18, 2019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Our Correspondent</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Dialogue only path to peace, stresses crown prince</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://tribune.com.pk/story/1913278/1-believe-pakistan-crown-prince-mohammad-bin-salman-departs-pakistan/</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.dawn.com</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>February 17, 2019</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Anwar Iqbal</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Pulwama explosives obtained locally, says Indian commander
+</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.dawn.com/news/1464358/pulwama-explosives-obtained-locally-says-indian-commander</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
